--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value978.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value978.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>-1</v>
+        <v>0.6493911147117615</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>0.9124007821083069</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.171574354171753</v>
       </c>
       <c r="D1">
-        <v>1.084184086060817</v>
+        <v>3.834018230438232</v>
       </c>
       <c r="E1">
-        <v>0.7020166128214412</v>
+        <v>2.431010723114014</v>
       </c>
     </row>
   </sheetData>
